--- a/medicine/Enfance/Paule_du_Bouchet/Paule_du_Bouchet.xlsx
+++ b/medicine/Enfance/Paule_du_Bouchet/Paule_du_Bouchet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paule du Bouchet, née le 19 avril 1951, est une éditrice et auteure française.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paule du Bouchet est la fille d'André du Bouchet et de Tina Jolas. Après des études de philosophie et de musique, elle enseigne la philosophie et fait de la formation musicale pour les enfants. Elle s'oriente ensuite vers l'édition et la littérature jeunesse.
-Elle travaille pour les Éditions Gallimard, dans la section « Écoutez Lire ». Elle est aussi l'éditrice de la collection « Découvertes Gallimard » de 1984 à 1996[1].
+Elle travaille pour les Éditions Gallimard, dans la section « Écoutez Lire ». Elle est aussi l'éditrice de la collection « Découvertes Gallimard » de 1984 à 1996.
 Le Journal d'Adèle roman sur la Première Guerre mondiale reçoit le Prix du roman historique, le Prix petit Renaudot, le Prix de l'Académie de Versailles.[réf. nécessaire]
 Elle a écrit plusieurs romans, dont Chante, Luna en 2004, Le Journal d'Adèle en 2007, A la vie à la mort, Comme un ours en cage.
 </t>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Marie-Laure Bernadac et Paule du Bouchet, Picasso : Le sage et le fou, Paris, Éditions Gallimard, coll. « Découvertes Gallimard / Peinture » (no 4), 1986 (réimpr. 2007), 192 p. (ISBN 978-2-0705-3016-8)
 Paule du Bouchet, Magnificat : Jean-Sébastien Bach, le cantor, Paris, Éditions Gallimard, coll. « Découvertes Gallimard / Musique » (no 116), 1991, 192 p. (ISBN 978-2-0705-3144-8)
@@ -610,9 +626,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(international) « Honour List » 2006[2] de l' IBBY pour  Chante, Luna 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(international) « Honour List » 2006 de l' IBBY pour  Chante, Luna 
 Prix du roman historique, Prix petit Renaudot, Prix de l'Académie de Versailles.[réf. nécessaire] pour Le Journal d'Adèle</t>
         </is>
       </c>
